--- a/planilha_com_novos_nomes_jogadores_atualizada.xlsx
+++ b/planilha_com_novos_nomes_jogadores_atualizada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="52">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Semana 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince</t>
   </si>
 </sst>
 </file>
@@ -474,8 +477,8 @@
   </sheetPr>
   <dimension ref="A1:Q841"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A556" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N566" activeCellId="0" sqref="N566:Q566"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A670" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J636" activeCellId="0" sqref="J636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24307,34 +24310,34 @@
       <c r="G563" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H563" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J563" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K563" s="0" t="n">
+      <c r="H563" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I563" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K563" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L563" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N563" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O563" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P563" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q563" s="0" t="n">
+      <c r="L563" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q563" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24357,34 +24360,34 @@
       <c r="G564" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H564" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P564" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q564" s="0" t="n">
+      <c r="H564" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I564" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q564" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24407,34 +24410,34 @@
       <c r="G565" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H565" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J565" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K565" s="0" t="n">
+      <c r="H565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J565" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K565" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L565" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N565" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O565" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P565" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q565" s="0" t="n">
+      <c r="L565" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q565" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24457,34 +24460,34 @@
       <c r="G566" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P566" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q566" s="0" t="n">
+      <c r="H566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q566" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24523,34 +24526,34 @@
       <c r="G568" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H568" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J568" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K568" s="0" t="n">
+      <c r="H568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K568" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="L568" s="0" t="n">
+      <c r="L568" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M568" s="0" t="n">
+      <c r="M568" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N568" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O568" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P568" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q568" s="0" t="n">
+      <c r="N568" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O568" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q568" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24573,34 +24576,34 @@
       <c r="G569" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H569" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J569" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K569" s="0" t="n">
+      <c r="H569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K569" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="L569" s="0" t="n">
+      <c r="L569" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M569" s="0" t="n">
+      <c r="M569" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N569" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O569" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P569" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q569" s="0" t="n">
+      <c r="N569" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q569" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24623,34 +24626,34 @@
       <c r="G570" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H570" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J570" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K570" s="0" t="n">
+      <c r="H570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K570" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="L570" s="0" t="n">
+      <c r="L570" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M570" s="0" t="n">
+      <c r="M570" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N570" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O570" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P570" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q570" s="0" t="n">
+      <c r="N570" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q570" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24673,34 +24676,34 @@
       <c r="G571" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H571" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J571" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K571" s="0" t="n">
+      <c r="H571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K571" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="L571" s="0" t="n">
+      <c r="L571" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M571" s="0" t="n">
+      <c r="M571" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N571" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O571" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P571" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q571" s="0" t="n">
+      <c r="N571" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O571" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q571" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24739,34 +24742,34 @@
       <c r="G573" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H573" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J573" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K573" s="0" t="n">
+      <c r="H573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K573" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="L573" s="0" t="n">
+      <c r="L573" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M573" s="0" t="n">
+      <c r="M573" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N573" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O573" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P573" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q573" s="0" t="n">
+      <c r="N573" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q573" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24789,34 +24792,34 @@
       <c r="G574" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H574" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J574" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K574" s="0" t="n">
+      <c r="H574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K574" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="L574" s="0" t="n">
+      <c r="L574" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M574" s="0" t="n">
+      <c r="M574" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N574" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O574" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P574" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q574" s="0" t="n">
+      <c r="N574" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q574" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24839,34 +24842,34 @@
       <c r="G575" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K575" s="0" t="n">
+      <c r="H575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K575" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="L575" s="0" t="n">
+      <c r="L575" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M575" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N575" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P575" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q575" s="0" t="n">
+      <c r="M575" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N575" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24889,34 +24892,34 @@
       <c r="G576" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H576" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J576" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K576" s="0" t="n">
+      <c r="H576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K576" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="L576" s="0" t="n">
+      <c r="L576" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M576" s="0" t="n">
+      <c r="M576" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N576" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O576" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P576" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q576" s="0" t="n">
+      <c r="N576" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O576" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q576" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24955,34 +24958,34 @@
       <c r="G578" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H578" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J578" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K578" s="0" t="n">
+      <c r="H578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K578" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L578" s="0" t="n">
+      <c r="L578" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M578" s="0" t="n">
+      <c r="M578" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N578" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O578" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P578" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q578" s="0" t="n">
+      <c r="N578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O578" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P578" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q578" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25005,34 +25008,34 @@
       <c r="G579" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H579" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J579" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K579" s="0" t="n">
+      <c r="H579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K579" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L579" s="0" t="n">
+      <c r="L579" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M579" s="0" t="n">
+      <c r="M579" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N579" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O579" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P579" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q579" s="0" t="n">
+      <c r="N579" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O579" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P579" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q579" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25055,34 +25058,34 @@
       <c r="G580" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H580" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J580" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K580" s="0" t="n">
+      <c r="H580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K580" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="L580" s="0" t="n">
+      <c r="L580" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M580" s="0" t="n">
+      <c r="M580" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N580" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O580" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P580" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q580" s="0" t="n">
+      <c r="N580" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q580" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25105,34 +25108,34 @@
       <c r="G581" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H581" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J581" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K581" s="0" t="n">
+      <c r="H581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K581" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="L581" s="0" t="n">
+      <c r="L581" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M581" s="0" t="n">
+      <c r="M581" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="N581" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O581" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P581" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q581" s="0" t="n">
+      <c r="N581" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O581" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q581" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25171,34 +25174,34 @@
       <c r="G583" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H583" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J583" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K583" s="0" t="n">
+      <c r="H583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="L583" s="0" t="n">
+      <c r="L583" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M583" s="0" t="n">
+      <c r="M583" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N583" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O583" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P583" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q583" s="0" t="n">
+      <c r="N583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q583" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25221,34 +25224,34 @@
       <c r="G584" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H584" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J584" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K584" s="0" t="n">
+      <c r="H584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="L584" s="0" t="n">
+      <c r="L584" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M584" s="0" t="n">
+      <c r="M584" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N584" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O584" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P584" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q584" s="0" t="n">
+      <c r="N584" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q584" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25271,34 +25274,34 @@
       <c r="G585" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H585" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J585" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K585" s="0" t="n">
+      <c r="H585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K585" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="L585" s="0" t="n">
+      <c r="L585" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M585" s="0" t="n">
+      <c r="M585" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N585" s="0" t="n">
+      <c r="N585" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O585" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P585" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q585" s="0" t="n">
+      <c r="O585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q585" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25321,34 +25324,34 @@
       <c r="G586" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H586" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J586" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K586" s="0" t="n">
+      <c r="H586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K586" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="L586" s="0" t="n">
+      <c r="L586" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="M586" s="0" t="n">
+      <c r="M586" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N586" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O586" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P586" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q586" s="0" t="n">
+      <c r="N586" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q586" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25387,34 +25390,34 @@
       <c r="G588" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K588" s="0" t="n">
+      <c r="H588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K588" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="L588" s="0" t="n">
+      <c r="L588" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="M588" s="0" t="n">
+      <c r="M588" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N588" s="0" t="n">
+      <c r="N588" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q588" s="0" t="n">
+      <c r="O588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q588" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25437,34 +25440,34 @@
       <c r="G589" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K589" s="0" t="n">
+      <c r="H589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K589" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="L589" s="0" t="n">
+      <c r="L589" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M589" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P589" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q589" s="0" t="n">
+      <c r="M589" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q589" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25487,34 +25490,34 @@
       <c r="G590" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H590" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J590" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K590" s="0" t="n">
+      <c r="H590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K590" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="L590" s="0" t="n">
+      <c r="L590" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M590" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N590" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O590" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P590" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q590" s="0" t="n">
+      <c r="M590" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N590" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q590" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25537,34 +25540,34 @@
       <c r="G591" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H591" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J591" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K591" s="0" t="n">
+      <c r="H591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K591" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="L591" s="0" t="n">
+      <c r="L591" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="M591" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N591" s="0" t="n">
+      <c r="M591" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N591" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O591" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P591" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q591" s="0" t="n">
+      <c r="O591" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q591" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25603,34 +25606,34 @@
       <c r="G593" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H593" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J593" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K593" s="0" t="n">
+      <c r="H593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K593" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L593" s="0" t="n">
+      <c r="L593" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="M593" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N593" s="0" t="n">
+      <c r="M593" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N593" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="O593" s="0" t="n">
+      <c r="O593" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P593" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q593" s="0" t="n">
+      <c r="P593" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q593" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25653,34 +25656,34 @@
       <c r="G594" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H594" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J594" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K594" s="0" t="n">
+      <c r="H594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K594" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="L594" s="0" t="n">
+      <c r="L594" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="M594" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N594" s="0" t="n">
+      <c r="M594" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N594" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O594" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P594" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q594" s="0" t="n">
+      <c r="O594" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q594" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25703,34 +25706,34 @@
       <c r="G595" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H595" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J595" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K595" s="0" t="n">
+      <c r="H595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K595" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="L595" s="0" t="n">
+      <c r="L595" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="M595" s="0" t="n">
+      <c r="M595" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N595" s="0" t="n">
+      <c r="N595" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O595" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P595" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q595" s="0" t="n">
+      <c r="O595" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P595" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q595" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25753,34 +25756,34 @@
       <c r="G596" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H596" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J596" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K596" s="0" t="n">
+      <c r="H596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K596" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="L596" s="0" t="n">
+      <c r="L596" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="M596" s="0" t="n">
+      <c r="M596" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N596" s="0" t="n">
+      <c r="N596" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O596" s="0" t="n">
+      <c r="O596" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P596" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q596" s="0" t="n">
+      <c r="P596" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q596" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25819,34 +25822,34 @@
       <c r="G598" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H598" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J598" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K598" s="0" t="n">
+      <c r="H598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K598" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="L598" s="0" t="n">
+      <c r="L598" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M598" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N598" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O598" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P598" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q598" s="0" t="n">
+      <c r="M598" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N598" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O598" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P598" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q598" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25869,34 +25872,34 @@
       <c r="G599" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H599" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J599" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K599" s="0" t="n">
+      <c r="H599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K599" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="L599" s="0" t="n">
+      <c r="L599" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M599" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N599" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O599" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P599" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q599" s="0" t="n">
+      <c r="M599" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N599" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O599" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q599" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25919,34 +25922,34 @@
       <c r="G600" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H600" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J600" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K600" s="0" t="n">
+      <c r="H600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K600" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="L600" s="0" t="n">
+      <c r="L600" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M600" s="0" t="n">
+      <c r="M600" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N600" s="0" t="n">
+      <c r="N600" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O600" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P600" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q600" s="0" t="n">
+      <c r="O600" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P600" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q600" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25969,34 +25972,34 @@
       <c r="G601" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H601" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J601" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K601" s="0" t="n">
+      <c r="H601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K601" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="L601" s="0" t="n">
+      <c r="L601" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M601" s="0" t="n">
+      <c r="M601" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N601" s="0" t="n">
+      <c r="N601" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O601" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P601" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q601" s="0" t="n">
+      <c r="O601" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P601" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q601" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26035,34 +26038,34 @@
       <c r="G603" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H603" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J603" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K603" s="0" t="n">
+      <c r="H603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K603" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="L603" s="0" t="n">
+      <c r="L603" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M603" s="0" t="n">
+      <c r="M603" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N603" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O603" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P603" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q603" s="0" t="n">
+      <c r="N603" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O603" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q603" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26085,34 +26088,34 @@
       <c r="G604" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H604" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J604" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K604" s="0" t="n">
+      <c r="H604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K604" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L604" s="0" t="n">
+      <c r="L604" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M604" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N604" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O604" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P604" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q604" s="0" t="n">
+      <c r="M604" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N604" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O604" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q604" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26135,34 +26138,34 @@
       <c r="G605" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H605" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J605" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K605" s="0" t="n">
+      <c r="H605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K605" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="L605" s="0" t="n">
+      <c r="L605" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M605" s="0" t="n">
+      <c r="M605" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N605" s="0" t="n">
+      <c r="N605" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O605" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P605" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q605" s="0" t="n">
+      <c r="O605" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q605" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26185,34 +26188,34 @@
       <c r="G606" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K606" s="0" t="n">
+      <c r="H606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K606" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="L606" s="0" t="n">
+      <c r="L606" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M606" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N606" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P606" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q606" s="0" t="n">
+      <c r="M606" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N606" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q606" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26251,34 +26254,34 @@
       <c r="G608" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H608" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J608" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K608" s="0" t="n">
+      <c r="H608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K608" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="L608" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="M608" s="0" t="n">
+      <c r="L608" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="M608" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N608" s="0" t="n">
+      <c r="N608" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O608" s="0" t="n">
+      <c r="O608" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P608" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q608" s="0" t="n">
+      <c r="P608" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q608" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26301,34 +26304,34 @@
       <c r="G609" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H609" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J609" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K609" s="0" t="n">
+      <c r="H609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K609" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="L609" s="0" t="n">
+      <c r="L609" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="M609" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N609" s="0" t="n">
+      <c r="M609" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N609" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O609" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P609" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q609" s="0" t="n">
+      <c r="O609" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q609" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26351,34 +26354,34 @@
       <c r="G610" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H610" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J610" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K610" s="0" t="n">
+      <c r="H610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K610" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="L610" s="0" t="n">
+      <c r="L610" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M610" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N610" s="0" t="n">
+      <c r="M610" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N610" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O610" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P610" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q610" s="0" t="n">
+      <c r="O610" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q610" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26401,34 +26404,34 @@
       <c r="G611" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H611" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J611" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K611" s="0" t="n">
+      <c r="H611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K611" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="L611" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="M611" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N611" s="0" t="n">
+      <c r="L611" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="M611" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N611" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O611" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P611" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q611" s="0" t="n">
+      <c r="O611" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -26467,34 +26470,34 @@
       <c r="G613" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H613" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J613" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K613" s="0" t="n">
+      <c r="H613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K613" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L613" s="0" t="n">
+      <c r="L613" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M613" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N613" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O613" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P613" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q613" s="0" t="n">
+      <c r="M613" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N613" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O613" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26517,34 +26520,34 @@
       <c r="G614" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H614" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J614" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K614" s="0" t="n">
+      <c r="H614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="L614" s="0" t="n">
+      <c r="L614" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M614" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N614" s="0" t="n">
+      <c r="M614" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N614" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O614" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P614" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q614" s="0" t="n">
+      <c r="O614" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P614" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q614" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26567,34 +26570,34 @@
       <c r="G615" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H615" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J615" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K615" s="0" t="n">
+      <c r="H615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="L615" s="0" t="n">
+      <c r="L615" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M615" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N615" s="0" t="n">
+      <c r="M615" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N615" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O615" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P615" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q615" s="0" t="n">
+      <c r="O615" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P615" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q615" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26617,34 +26620,34 @@
       <c r="G616" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H616" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J616" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K616" s="0" t="n">
+      <c r="H616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="L616" s="0" t="n">
+      <c r="L616" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M616" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N616" s="0" t="n">
+      <c r="M616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O616" s="0" t="n">
+      <c r="O616" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P616" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q616" s="0" t="n">
+      <c r="P616" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q616" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26901,8 +26904,42 @@
       <c r="E632" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F632" s="3"/>
-      <c r="G632" s="3"/>
+      <c r="F632" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H632" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I632" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J632" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K632" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="L632" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M632" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N632" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O632" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P632" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q632" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B633" s="3" t="s">
@@ -26917,8 +26954,42 @@
       <c r="E633" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F633" s="3"/>
-      <c r="G633" s="3"/>
+      <c r="F633" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H633" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I633" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J633" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K633" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L633" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M633" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N633" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O633" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P633" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q633" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="3" t="s">
@@ -26933,8 +27004,42 @@
       <c r="E634" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F634" s="3"/>
-      <c r="G634" s="3"/>
+      <c r="F634" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H634" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J634" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K634" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L634" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M634" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N634" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O634" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P634" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q634" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B635" s="3" t="s">
@@ -26949,8 +27054,42 @@
       <c r="E635" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F635" s="3"/>
-      <c r="G635" s="3"/>
+      <c r="F635" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K635" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L635" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q635" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B636" s="3" t="s">
@@ -26965,8 +27104,42 @@
       <c r="E636" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F636" s="3"/>
-      <c r="G636" s="3"/>
+      <c r="F636" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H636" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I636" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J636" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K636" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L636" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M636" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N636" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O636" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P636" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q636" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="3" t="s">
@@ -26981,8 +27154,42 @@
       <c r="E637" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F637" s="3"/>
-      <c r="G637" s="3"/>
+      <c r="F637" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K637" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="L637" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M637" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q637" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B638" s="3" t="s">
@@ -26997,8 +27204,42 @@
       <c r="E638" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F638" s="3"/>
-      <c r="G638" s="3"/>
+      <c r="F638" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K638" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L638" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M638" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N638" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q638" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="3" t="s">
@@ -27013,8 +27254,42 @@
       <c r="E639" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F639" s="3"/>
-      <c r="G639" s="3"/>
+      <c r="F639" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H639" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K639" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="L639" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M639" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N639" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O639" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P639" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q639" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="3" t="s">
@@ -27029,8 +27304,42 @@
       <c r="E640" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F640" s="3"/>
-      <c r="G640" s="3"/>
+      <c r="F640" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H640" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K640" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="L640" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M640" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N640" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O640" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P640" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q640" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B641" s="3" t="s">
@@ -27045,8 +27354,42 @@
       <c r="E641" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F641" s="3"/>
-      <c r="G641" s="3"/>
+      <c r="F641" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K641" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="L641" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M641" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N641" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q641" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B642" s="3" t="s">
@@ -27061,8 +27404,42 @@
       <c r="E642" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F642" s="3"/>
-      <c r="G642" s="3"/>
+      <c r="F642" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K642" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L642" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M642" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N642" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q642" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B643" s="3" t="s">
@@ -27077,8 +27454,42 @@
       <c r="E643" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F643" s="3"/>
-      <c r="G643" s="3"/>
+      <c r="F643" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L643" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M643" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q643" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B644" s="3" t="s">
@@ -27093,8 +27504,42 @@
       <c r="E644" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F644" s="3"/>
-      <c r="G644" s="3"/>
+      <c r="F644" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K644" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L644" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M644" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B645" s="3" t="s">
@@ -27109,8 +27554,42 @@
       <c r="E645" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
+      <c r="F645" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H645" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K645" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L645" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M645" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N645" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O645" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q645" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B646" s="3" t="s">
@@ -27125,8 +27604,42 @@
       <c r="E646" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F646" s="3"/>
-      <c r="G646" s="3"/>
+      <c r="F646" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H646" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K646" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="L646" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M646" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N646" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O646" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P646" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q646" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B647" s="3" t="s">
@@ -27141,8 +27654,42 @@
       <c r="E647" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F647" s="3"/>
-      <c r="G647" s="3"/>
+      <c r="F647" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K647" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L647" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M647" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N647" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q647" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B648" s="3" t="s">
@@ -27157,8 +27704,42 @@
       <c r="E648" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F648" s="3"/>
-      <c r="G648" s="3"/>
+      <c r="F648" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K648" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="L648" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M648" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q648" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B649" s="3" t="s">
@@ -27173,8 +27754,42 @@
       <c r="E649" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F649" s="3"/>
-      <c r="G649" s="3"/>
+      <c r="F649" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H649" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J649" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K649" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="L649" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M649" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N649" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O649" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P649" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q649" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="3" t="s">
@@ -27189,8 +27804,42 @@
       <c r="E650" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F650" s="3"/>
-      <c r="G650" s="3"/>
+      <c r="F650" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K650" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L650" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M650" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N650" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q650" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B651" s="3" t="s">
@@ -27205,8 +27854,42 @@
       <c r="E651" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F651" s="3"/>
-      <c r="G651" s="3"/>
+      <c r="F651" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H651" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J651" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K651" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L651" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M651" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N651" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O651" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P651" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q651" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="3" t="s">
@@ -27221,8 +27904,42 @@
       <c r="E652" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F652" s="3"/>
-      <c r="G652" s="3"/>
+      <c r="F652" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H652" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J652" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K652" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L652" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M652" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N652" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O652" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P652" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q652" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B653" s="3" t="s">
@@ -27237,8 +27954,42 @@
       <c r="E653" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F653" s="3"/>
-      <c r="G653" s="3"/>
+      <c r="F653" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H653" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J653" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K653" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L653" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M653" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N653" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O653" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P653" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q653" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B654" s="3" t="s">
@@ -27253,8 +28004,42 @@
       <c r="E654" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F654" s="3"/>
-      <c r="G654" s="3"/>
+      <c r="F654" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H654" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K654" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L654" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="M654" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N654" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O654" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P654" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q654" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="3" t="s">
@@ -27269,8 +28054,42 @@
       <c r="E655" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F655" s="3"/>
-      <c r="G655" s="3"/>
+      <c r="F655" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K655" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="L655" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M655" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q655" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="3" t="s">
@@ -27285,8 +28104,42 @@
       <c r="E656" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F656" s="3"/>
-      <c r="G656" s="3"/>
+      <c r="F656" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H656" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K656" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="L656" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="M656" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N656" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O656" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P656" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q656" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B657" s="3" t="s">
@@ -27301,8 +28154,42 @@
       <c r="E657" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F657" s="3"/>
-      <c r="G657" s="3"/>
+      <c r="F657" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H657" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K657" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L657" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M657" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N657" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O657" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P657" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q657" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="3" t="s">
@@ -27317,8 +28204,42 @@
       <c r="E658" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F658" s="3"/>
-      <c r="G658" s="3"/>
+      <c r="F658" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H658" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J658" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K658" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L658" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M658" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N658" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O658" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P658" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q658" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="3" t="s">
@@ -27333,8 +28254,42 @@
       <c r="E659" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F659" s="3"/>
-      <c r="G659" s="3"/>
+      <c r="F659" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H659" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K659" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L659" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="M659" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N659" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O659" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P659" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q659" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="3" t="s">
@@ -27349,8 +28304,42 @@
       <c r="E660" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F660" s="3"/>
-      <c r="G660" s="3"/>
+      <c r="F660" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K660" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L660" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M660" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N660" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q660" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="3" t="s">
@@ -27365,8 +28354,42 @@
       <c r="E661" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F661" s="3"/>
-      <c r="G661" s="3"/>
+      <c r="F661" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K661" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L661" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M661" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N661" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q661" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B662" s="3" t="s">
@@ -27381,8 +28404,42 @@
       <c r="E662" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F662" s="3"/>
-      <c r="G662" s="3"/>
+      <c r="F662" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K662" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="L662" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M662" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N662" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q662" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="3" t="s">
@@ -27397,8 +28454,42 @@
       <c r="E663" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F663" s="3"/>
-      <c r="G663" s="3"/>
+      <c r="F663" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H663" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J663" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K663" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L663" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M663" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N663" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O663" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P663" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q663" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B664" s="3" t="s">
@@ -27413,8 +28504,42 @@
       <c r="E664" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F664" s="3"/>
-      <c r="G664" s="3"/>
+      <c r="F664" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H664" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K664" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L664" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M664" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N664" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O664" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P664" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q664" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B665" s="3" t="s">
@@ -27429,8 +28554,42 @@
       <c r="E665" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F665" s="3"/>
-      <c r="G665" s="3"/>
+      <c r="F665" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H665" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J665" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K665" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L665" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M665" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N665" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O665" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P665" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q665" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B666" s="3" t="s">
@@ -27445,8 +28604,42 @@
       <c r="E666" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
+      <c r="F666" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H666" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J666" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K666" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="L666" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="M666" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N666" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O666" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P666" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q666" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="3" t="s">
@@ -27461,8 +28654,42 @@
       <c r="E667" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F667" s="3"/>
-      <c r="G667" s="3"/>
+      <c r="F667" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H667" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J667" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K667" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L667" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M667" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N667" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O667" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P667" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q667" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="3" t="s">
@@ -27477,8 +28704,42 @@
       <c r="E668" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
+      <c r="F668" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H668" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J668" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K668" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L668" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M668" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N668" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O668" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P668" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q668" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="3" t="s">
@@ -27493,8 +28754,42 @@
       <c r="E669" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F669" s="3"/>
-      <c r="G669" s="3"/>
+      <c r="F669" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H669" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J669" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K669" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="L669" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M669" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N669" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O669" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P669" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q669" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B670" s="3" t="s">
@@ -27509,8 +28804,42 @@
       <c r="E670" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F670" s="3"/>
-      <c r="G670" s="3"/>
+      <c r="F670" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H670" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J670" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K670" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L670" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M670" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N670" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O670" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P670" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q670" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B671" s="3" t="s">
@@ -27525,8 +28854,42 @@
       <c r="E671" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F671" s="3"/>
-      <c r="G671" s="3"/>
+      <c r="F671" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H671" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J671" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K671" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L671" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M671" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N671" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O671" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P671" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q671" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B672" s="3" t="s">
@@ -27541,8 +28904,42 @@
       <c r="E672" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3"/>
+      <c r="F672" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K672" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="L672" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M672" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N672" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q672" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B673" s="3" t="s">
@@ -27557,8 +28954,42 @@
       <c r="E673" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F673" s="3"/>
-      <c r="G673" s="3"/>
+      <c r="F673" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H673" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J673" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K673" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L673" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M673" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N673" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O673" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P673" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q673" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B674" s="3" t="s">
@@ -27573,8 +29004,42 @@
       <c r="E674" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F674" s="3"/>
-      <c r="G674" s="3"/>
+      <c r="F674" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K674" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L674" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M674" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N674" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q674" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B675" s="3" t="s">
@@ -27589,8 +29054,42 @@
       <c r="E675" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F675" s="3"/>
-      <c r="G675" s="3"/>
+      <c r="F675" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K675" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="L675" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M675" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N675" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q675" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B676" s="3" t="s">
@@ -27605,8 +29104,42 @@
       <c r="E676" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F676" s="3"/>
-      <c r="G676" s="3"/>
+      <c r="F676" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H676" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J676" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K676" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L676" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M676" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N676" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O676" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P676" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q676" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="3" t="s">
@@ -27621,8 +29154,42 @@
       <c r="E677" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F677" s="3"/>
-      <c r="G677" s="3"/>
+      <c r="F677" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H677" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J677" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K677" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L677" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M677" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N677" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O677" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P677" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q677" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B678" s="3" t="s">
@@ -27637,8 +29204,42 @@
       <c r="E678" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
+      <c r="F678" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H678" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J678" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K678" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L678" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M678" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N678" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O678" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P678" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q678" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="3" t="s">
@@ -27653,8 +29254,42 @@
       <c r="E679" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
+      <c r="F679" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H679" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J679" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K679" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L679" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M679" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N679" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O679" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P679" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q679" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="3" t="s">
@@ -27669,8 +29304,42 @@
       <c r="E680" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
+      <c r="F680" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H680" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J680" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K680" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="L680" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M680" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N680" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O680" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P680" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q680" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B681" s="3" t="s">
@@ -27685,8 +29354,42 @@
       <c r="E681" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
+      <c r="F681" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H681" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J681" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K681" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L681" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M681" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N681" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O681" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P681" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q681" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B682" s="3" t="s">
@@ -27701,8 +29404,42 @@
       <c r="E682" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F682" s="3"/>
-      <c r="G682" s="3"/>
+      <c r="F682" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H682" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J682" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K682" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="L682" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M682" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N682" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O682" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P682" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q682" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B683" s="3" t="s">
@@ -27717,8 +29454,42 @@
       <c r="E683" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F683" s="3"/>
-      <c r="G683" s="3"/>
+      <c r="F683" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H683" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J683" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K683" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="L683" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M683" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N683" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O683" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P683" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q683" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B684" s="3" t="s">
@@ -27733,8 +29504,42 @@
       <c r="E684" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F684" s="3"/>
-      <c r="G684" s="3"/>
+      <c r="F684" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H684" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J684" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K684" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="L684" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M684" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N684" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O684" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P684" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q684" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B685" s="3" t="s">
@@ -27749,8 +29554,42 @@
       <c r="E685" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F685" s="3"/>
-      <c r="G685" s="3"/>
+      <c r="F685" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H685" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J685" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K685" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L685" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M685" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N685" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O685" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P685" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q685" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B686" s="3" t="s">
@@ -27765,8 +29604,42 @@
       <c r="E686" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F686" s="3"/>
-      <c r="G686" s="3"/>
+      <c r="F686" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H686" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J686" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K686" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="L686" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M686" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N686" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O686" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P686" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q686" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="3" t="s">
